--- a/gyoumu.xlsx
+++ b/gyoumu.xlsx
@@ -7,15 +7,16 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="その他" sheetId="2" r:id="rId2"/>
+    <sheet name="生徒情報" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="その他" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="321">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="2">
@@ -936,13 +937,389 @@
   </si>
   <si>
     <t>rfla_code</t>
+  </si>
+  <si>
+    <t>Print32179000FormBean</t>
+  </si>
+  <si>
+    <t>Map&lt;String, Print32179000StudentFormBean&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Print32179000StudentFormBean</t>
+  </si>
+  <si>
+    <t>学籍番号</t>
+  </si>
+  <si>
+    <t>学年</t>
+  </si>
+  <si>
+    <t>出席番号</t>
+  </si>
+  <si>
+    <t>児童氏名</t>
+  </si>
+  <si>
+    <t>児童仮名</t>
+  </si>
+  <si>
+    <t>SQLで取得する項目(getPrint32179000Student.sql)</t>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■studentMap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所属コード</t>
+  </si>
+  <si>
+    <t>セッションの値を設定</t>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Print32179000Service.getStudentInfoEntityListで取得している</t>
+  </si>
+  <si>
+    <t>組(ホームルーム名称)</t>
+    <rPh sb="0" eb="1">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホームルーム名のコメントは間違いではないのか？</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>マチガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-- ◆生徒の基本情報</t>
+    <rPh sb="4" eb="6">
+      <t>セイト</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-- ◆学習の記録</t>
+    <rPh sb="4" eb="6">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Print32179000Service.getEvalAndSetで取得している</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Map&lt;String, Print32179000ItemFormBean&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Print32179000ItemFormBean</t>
+  </si>
+  <si>
+    <t>itemMap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQLで取得する項目(getPrint32179000EvalScore.sql)</t>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学習の記録</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-- ◆観点別評価</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>観点別評価リストのコメント間違いではないか？</t>
+    <rPh sb="13" eb="15">
+      <t>マチガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>viewpointList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■学習の記録(itemMap)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■観点別評価リスト(viewpointList)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eval</t>
+  </si>
+  <si>
+    <t>SQLで取得する項目(getPrint32179000ViewpointScore.sql)</t>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQLでは取得していない。未使用か？</t>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ミシヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-- ◆道徳の評価</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScorptmoralEntity</t>
+  </si>
+  <si>
+    <t>■道徳の評価(scorptmoral)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQLで取得する項目(getPrint32179000Scorptmoral.sql)</t>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全項目取得している</t>
+    <rPh sb="0" eb="3">
+      <t>ゼンコウモク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScorptmoralEntity (共通エンティティ)</t>
+    <rPh sb="19" eb="21">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Print32179000Service.getScorptMoralAndSetで取得している</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Print32179000Service.getForeignlangActListで取得している</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>List&lt;Print32179000ForeignLangActEntity&gt;</t>
+  </si>
+  <si>
+    <t>-- ◆外国語活動の記録</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>List&lt;Print32179000ViewPointEntity&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Print32179000ViewPointEntity</t>
+  </si>
+  <si>
+    <t>Print32179000ForeignLangActEntity</t>
+  </si>
+  <si>
+    <t>出力時期</t>
+  </si>
+  <si>
+    <t>SQLで取得する項目(getPrint32179000ForeignLangAct.sql)</t>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■外国語活動の記録(foreignLangActList)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-- ◆総合的な学習の時間</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Print32179000Service.getTotalActで取得している</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>totalAct</t>
+  </si>
+  <si>
+    <t>総合的な学習の時間</t>
+  </si>
+  <si>
+    <t>Print32179000TotalActEntity</t>
+  </si>
+  <si>
+    <t>■総合的な学習の時間(totalAct)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rtat_act</t>
+  </si>
+  <si>
+    <t>rtat_pointview</t>
+  </si>
+  <si>
+    <t>rtav_value</t>
+  </si>
+  <si>
+    <t>学習活動</t>
+  </si>
+  <si>
+    <t>観点</t>
+  </si>
+  <si>
+    <t>評価</t>
+  </si>
+  <si>
+    <t>SQLで取得する項目(getPrint32179000TotalAct.sql)</t>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-- ◆特別活動の記録</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Print32179000Service.getSpecialActivityで取得している</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特別活動の記録リスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>spActList</t>
+  </si>
+  <si>
+    <t>List&lt;Print32179000SpActEntity&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■特別活動の記録リスト(spActList)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rsat_rsatcode</t>
+  </si>
+  <si>
+    <t>rsat_rsatname</t>
+  </si>
+  <si>
+    <t>rsav_record</t>
+  </si>
+  <si>
+    <t>rsae_display</t>
+  </si>
+  <si>
+    <t>SQLで取得する項目(getPrint32179000SpAct.sql)</t>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Print32179000SpActEntity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特別活動ID</t>
+  </si>
+  <si>
+    <t>特別活動名称</t>
+  </si>
+  <si>
+    <t>特別活動の学習の記録</t>
+  </si>
+  <si>
+    <t>特別活動の記録評価値表示用の値</t>
+  </si>
+  <si>
+    <t>-- ◆総合所見</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Print32179000Service.getCommentで取得している</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイムアップ</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -955,6 +1332,13 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -978,13 +1362,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1289,11 +1674,776 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E98"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" style="1" customWidth="1"/>
+    <col min="4" max="4" width="52.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B7" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B8" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B10" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B11" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B12" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B14" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B16" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B18" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B33" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B34" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B43" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B44" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B45" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B46" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B47" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B48" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B50" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B51" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B55" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B56" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B57" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B58" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B59" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B60" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B61" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B62" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B63" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B64" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B65" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B66" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B70" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B74" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B75" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B76" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B77" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B78" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B79" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B80" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B81" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B82" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B83" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B87" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B88" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B89" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B90" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B94" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B95" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B96" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B97" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B98" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2257,7 +3407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
